--- a/google-data/design_means.xlsx
+++ b/google-data/design_means.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nubeusc-my.sharepoint.com/personal/pablo_coellopulido_usc_es/Documents/supp_data/surveys/analisis encuestas google forms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\GitHub\choice-survey\google-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4DAB9DB-8DDC-46EA-AC7E-61CB50F2B3AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5695760F-A005-4508-951D-B1EF9BDC13FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" xr2:uid="{35F9AA77-BC16-45C5-B762-49FF4D502983}"/>
   </bookViews>
@@ -134,16 +134,16 @@
     <t>set8.alt4</t>
   </si>
   <si>
-    <t>Var1</t>
-  </si>
-  <si>
-    <t>Var2</t>
-  </si>
-  <si>
-    <t>Var3</t>
-  </si>
-  <si>
-    <t>Var4</t>
+    <t>VE1</t>
+  </si>
+  <si>
+    <t>VS2</t>
+  </si>
+  <si>
+    <t>VM3</t>
+  </si>
+  <si>
+    <t>CT4</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1162,5 +1162,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>